--- a/SampleGradients10.xlsx
+++ b/SampleGradients10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavaddepalli/School/Research/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pranav\Research\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05187839-53CC-EE4D-B8E7-0293D61427CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA76DE24-2F91-4909-A1BF-A2CA25FE782B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,17 +442,17 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -472,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>-26.096199023238469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -512,7 +512,7 @@
         <v>-27.01695347558141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,7 +532,7 @@
         <v>-26.78411490446139</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -552,7 +552,7 @@
         <v>-26.438724712348481</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -572,7 +572,7 @@
         <v>-25.987299659489711</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -592,7 +592,7 @@
         <v>-26.077440296975581</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -612,7 +612,7 @@
         <v>-26.78411490446139</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -632,7 +632,7 @@
         <v>-27.079446077731909</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -652,7 +652,7 @@
         <v>-26.19267490538471</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -672,7 +672,7 @@
         <v>-27.138896521942961</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -692,7 +692,7 @@
         <v>-26.454330176580811</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -712,7 +712,7 @@
         <v>-26.86317281520034</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -732,7 +732,7 @@
         <v>-26.86317281520034</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -752,7 +752,7 @@
         <v>-26.19267490538471</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -772,7 +772,7 @@
         <v>-26.58779036916896</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -792,7 +792,7 @@
         <v>-27.127838433412581</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -812,7 +812,7 @@
         <v>-26.033821653565791</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -832,7 +832,7 @@
         <v>-26.32108033782951</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -852,7 +852,7 @@
         <v>-26.50799606390445</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -872,7 +872,7 @@
         <v>-27.05901505835125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -892,7 +892,7 @@
         <v>-26.32108033782951</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -912,7 +912,7 @@
         <v>-25.89887482026721</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -932,7 +932,7 @@
         <v>-26.32108033782951</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -952,7 +952,7 @@
         <v>-25.85998715062593</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -972,7 +972,7 @@
         <v>-26.753408924701429</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -992,7 +992,7 @@
         <v>-26.12303649438261</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>-25.89887482026721</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>-26.71364661413492</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>-27.13974686385858</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>-26.029511120158951</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>-26.12303649438261</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>-25.862553437548168</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>-26.634996408350439</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>-25.759431756915681</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>-25.931758680028221</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>-26.256214127281361</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>-26.009182918252218</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>-26.009182918252218</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>-26.009182918252218</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>-26.346677792777609</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>-25.503142027487069</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>-25.503142027487069</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>-26.22512976988121</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>-26.26308671825354</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>-26.62121798081121</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>-26.104093152312402</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>-25.834854323083061</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>-26.104093152312402</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>-26.21665795713626</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>-26.009182918252218</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>-25.440420802567871</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>-25.47941882862311</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>-25.006617642741791</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>-24.69564373318152</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>-24.69564373318152</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>-24.69564373318152</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>-23.616948468287472</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>-24.706193983430261</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>-24.43228050215161</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>-24.57972283987182</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>-24.57972283987182</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>-23.600917856721701</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>-24.706193983430261</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>-25.012417660758381</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>-24.219706840108191</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>-24.284102699337829</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>-23.825591950430631</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>-23.251139416843959</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>-23.654613456345359</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>-23.327136085035288</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>-22.44712937318063</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>-22.933240479921171</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>-22.86408953492537</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>-22.37365960391719</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>-24.35649213571962</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>-27.748540186387579</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>-30.230406866301781</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>-32.337056374085748</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>-33.716745224772033</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>-31.59157783305092</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>-31.772237127855881</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>-22.816356069250158</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>-21.110498822742379</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>-16.656600133188139</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>2.80227555799511</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>24.554152289599099</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>36.034958033642582</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>30.22180224935428</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>24.255503941485809</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>13.019366304183849</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>4.4618901385926772</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>-4.3906515696996591</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>-5.0865572477506946</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>-10.87480101662698</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>-18.443339673520221</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>-15.54989377023502</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>-13.01973577860279</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>-11.743199236825619</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>-10.642828211718911</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2474,6 +2474,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>